--- a/Members.xlsx
+++ b/Members.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9FC1C8-5131-4222-B812-1441D328F6C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14FA8CD-2B88-4063-A483-E067FF1E37D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>Samarth Aggarwal</t>
+  </si>
+  <si>
+    <t>Ronak Shah</t>
+  </si>
+  <si>
+    <t>Freshman</t>
+  </si>
+  <si>
+    <t>rshah@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Lin ziyu</t>
+  </si>
+  <si>
+    <t>zil332@ucsd.edu</t>
   </si>
 </sst>
 </file>
@@ -497,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -559,7 +574,9 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>94535555</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -647,6 +664,37 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>95161322</v>
       </c>
     </row>
   </sheetData>
@@ -656,8 +704,10 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{6A6CD959-C603-49E5-8FE5-CD5AD801CBD2}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{72459AC5-4EDA-4A54-9AC0-A6C23A003EAF}"/>
     <hyperlink ref="D11" r:id="rId5" xr:uid="{AA3B834A-2C97-431F-9AE8-3DDC769B4DE3}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{EAABCF1F-1351-4728-9F2E-57C27A7870DE}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{BFC5A7A9-C736-4FE7-936B-95CD7B7F68E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Members.xlsx
+++ b/Members.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14FA8CD-2B88-4063-A483-E067FF1E37D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB64C84-91D8-44A7-8756-C95C50E7EF1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -515,7 +515,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -646,6 +646,12 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
